--- a/Documentation/Issues.xlsx
+++ b/Documentation/Issues.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PedroB\repo\Testcafe_ProyetoFinal\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080E32C-74F3-46DB-A001-42DFB416B2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E149E01D-924F-4F9E-A30F-CDFE15DE121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F044A91-2141-4B07-823B-C7627983F58E}"/>
   </bookViews>
   <sheets>
     <sheet name="ISSUES" sheetId="4" r:id="rId1"/>
+    <sheet name="ISS_01" sheetId="5" r:id="rId2"/>
+    <sheet name="ISS_02" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>TEST NAME</t>
   </si>
@@ -58,13 +60,66 @@
   </si>
   <si>
     <t>STEPS TO REPRODUCE</t>
+  </si>
+  <si>
+    <t>ISSUE CODE</t>
+  </si>
+  <si>
+    <t>ISS_01</t>
+  </si>
+  <si>
+    <t>ISS_02</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>MINOR</t>
+  </si>
+  <si>
+    <t>Will be corrected in the next Release</t>
+  </si>
+  <si>
+    <t>1. Open "http://automationpractice.com/".
+2. Locate and click the "Sign In" link
+3. In the "Already registered" area, locate and click the "Sign in" button and expect an error message.
+4. Validate an error message reading "An email address required." is displayed.
+5. In the "Create an account" area, locate and click the "Create an account" button and expect an error message.
+6. Validate an error message reading "Invalid email address." is displayed. (Error message validated at step 4 still exposed, when it's expected to have it removed.)
+7. In the "Already registered" area, enter an invalid E-mail address and click the "Sign in" button, and expect an error message.
+8. Validate an error message reading "Invalid email address." is displayed. (Error message validated at step 6 was removed, and the error from Step 4 got replaced by the "Invalid email address." message.)
+9. In the "Create an account" area, locate and click the "Create an account" button and expect an error message.
+10. Validate an error message reading "Invalid email address." is displayed. (Error message validated at step 8 still exposed, when it's expected to have it removed.)
+11. In the "Already registered" area, enter a valid E-mail address and click the "Sign in" button, and expect an error message.
+12. Validate an error message reading "Password is required." is displayed. (Error message validated at step 10 was removed, and the error from Step 8 got replaced by the "Password is required." message.)</t>
+  </si>
+  <si>
+    <t>On the Authentication page, error messages from "Create an account" and "Already registered" are present on the page at the same time.</t>
+  </si>
+  <si>
+    <t>When executing a search using the search term "Dress", seven elements are displayed, two of them are not dresses; nevertheless, when opening the Dress page, only five elements are displayed, those elements were listed during the search by term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open "http://automationpractice.com/".
+2. Search using the term "Dress".
+3. Navigate to the results area.
+4. Validate that seven items are displayed.
+5. Validate that five out of seven items contain the word "Dress" in the description while the other two do nñt have that word.
+6. In the banner on top, click on "Dresses".
+7. Navigate to the results area.
+8. Validate that five items are displayed.
+9. Validate that all items contain the word "Dress" in the description.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +139,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,10 +190,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -139,8 +203,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,7 +527,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +537,7 @@
     <col min="3" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="116.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -483,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -505,10 +576,18 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -520,10 +599,18 @@
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
@@ -634,6 +721,242 @@
       <c r="H16" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" location="ISS_01!A1" display="ISS_01" xr:uid="{9E02CF5B-1084-4177-88B1-C2B33356EA07}"/>
+    <hyperlink ref="E4" location="ISS_02!A1" display="ISS_02" xr:uid="{8A372DDD-8DA2-49C7-9A83-96B9AE22B8C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4F2C24-E271-46BB-AB2A-3C38A296E628}">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="106.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="250.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171F2BB3-573B-4A2C-8533-AA0BD0EABC79}">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="106.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
